--- a/Datos/indice.xlsx
+++ b/Datos/indice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G9-IA\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB03A3-60AB-493A-86E8-1A4F12D105E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B74A43B-3A63-4244-8F39-DD6F2CAF0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{988E960D-89FA-4CB1-8671-18C4A779E4FE}"/>
+    <workbookView xWindow="31845" yWindow="3615" windowWidth="21600" windowHeight="12645" xr2:uid="{988E960D-89FA-4CB1-8671-18C4A779E4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,34 +36,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Identificador</t>
   </si>
   <si>
-    <t>Nombre PDF</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>Descripción del Servicio de GLPI</t>
+  </si>
+  <si>
+    <t>008 Servicio GLPI. Gestión de tickets, proyectos y tareas [Wiki del STIC].pdf</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>Proceso de gestión de un contrato menor TIC</t>
+  </si>
+  <si>
+    <t>Proceso de Contratación Menor [Wiki del STIC].pdf</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>Reglamento de equivalencia de títulos extranjeros</t>
+  </si>
+  <si>
+    <t>texto_proyecto_ull_2025-04-11-8068.pdf</t>
+  </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>Servicio de obtención de certificados RedIRIS</t>
+  </si>
+  <si>
+    <t>XXX TCS Rediris. Servicio de obtención de certificados de duración media (un año) [Wiki del STIC].pdf</t>
+  </si>
+  <si>
+    <t>https://wiki.stic.ull.es/doku.php?id=sistemas:tcs_rediris:start&amp;s[]=iiaa</t>
+  </si>
+  <si>
+    <t>https://ulladmin.cloudtransparencia.es/archivos/105/1/texto_proyecto_ull_2025-04-11-8068.pdf</t>
+  </si>
+  <si>
+    <t>https://wiki.stic.ull.es/doku.php?id=direccion_proyectos_y_procesos:proceso_contratacion_menor&amp;s[]=iiaa</t>
+  </si>
+  <si>
     <t>Fecha de publicación</t>
   </si>
   <si>
     <t>Estado</t>
   </si>
   <si>
+    <t>Vigente</t>
+  </si>
+  <si>
     <t>Fecha de fin de vigencia</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>Presupuesto de la Universidad 2025</t>
+  </si>
+  <si>
+    <t>resolución presupuestos 2025.pdf</t>
+  </si>
+  <si>
+    <t>https://sede.ull.es/ecivilis-site/bulletinBoard/showBulletin/45121:1/document/7089366</t>
+  </si>
+  <si>
+    <t>https://sede.ull.es/ecivilis-site/documentValidation/doc/6069698/Z1hWVE5wdVA=</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>Presupuesto de la Universidad 2024</t>
+  </si>
+  <si>
+    <t>Resolución Rectoral presup.2024 y bases ejecución.pdf</t>
+  </si>
+  <si>
+    <t>No vigente</t>
+  </si>
+  <si>
+    <t>https://sede.ull.es/ecivilis-site/documentValidation/doc/7063657/U2dFb3oyTVA=</t>
+  </si>
+  <si>
+    <t>Instrucciones Gerencia Vacaciones-Permisos-Licencias PTGAS 2025-23-12-2024.pdf</t>
+  </si>
+  <si>
+    <t>Instrucción de vacaciones y permisos PTGAS 2025</t>
+  </si>
+  <si>
+    <t>2025-07</t>
+  </si>
+  <si>
+    <t>https://sede.ull.es/ecivilis-site/bulletinBoard/showBulletin/34642:1</t>
+  </si>
+  <si>
+    <t>Instrucción de vacaciones y permisos PTGAS 2024</t>
+  </si>
+  <si>
+    <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
+  </si>
+  <si>
+    <t>082 Contrato Menor Proceso de Contratación Menor.dokuwiki</t>
+  </si>
+  <si>
+    <t>https://wiki.stic.ull.es/doku.php?id=servicios:084_ztna</t>
+  </si>
+  <si>
+    <t>https://wiki.stic.ull.es/doku.php?id=servicios:082_contratos_menores</t>
+  </si>
+  <si>
+    <t>2025-10</t>
+  </si>
+  <si>
+    <t>ZTNA Servicio de acceso remoto seguro</t>
+  </si>
+  <si>
+    <t>084 ZTNA Servicio de acceso seguro ZTNA.dokuwiki</t>
+  </si>
+  <si>
+    <t>Nombre Archivo</t>
+  </si>
+  <si>
+    <t>Resolucion GERENCIA INSTRUCCION CONJUNTA VACACIONES PTGAS 2024.pdf</t>
+  </si>
+  <si>
+    <t>https://wiki.stic.ull.es/doku.php?id=servicios:008_glpi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +203,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,19 +249,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,47 +600,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42A3CF1-6928-4532-B57E-9A5D5E143629}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45627</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45636</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45384</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45667</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45672</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45280</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45652</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45648</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45778</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>55153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45778</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>55153</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{983A25D7-357C-49C2-8E05-65402A87B965}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{CAB122ED-26A4-4A5A-87B3-AAC207F0D5D4}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{366FC9F4-EB30-4C15-B9DA-73978D31980D}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{9E88B47D-46B8-429A-9D30-3F8B404FDA43}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{9144FF2D-CBA8-4BD7-A231-0065E7509DEC}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{1E9C694B-379D-4835-A611-7ECBA999C682}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{F555A144-362A-4316-8028-24B5B3A99417}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{DE76D529-9328-485F-9322-A7A392859312}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>